--- a/test.xlsx
+++ b/test.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <fileSharing readOnlyRecommended="1"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr backupFile="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F649093B-4DD6-9B4D-A9A3-8CD322FC5ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D31D77-A5B9-CC43-AE51-30441544203F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2460" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
+    <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" activeTab="1" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
     <sheet name="Iowa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -475,12 +475,34 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{BAE2EDCD-2503-A84E-B003-422688DB138D}">
+  <we:reference id="wa200000025" version="1.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200000025" version="1.0.0.0" store="WA200000025" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCFFA7-BC1A-364C-B017-DF9AFFD61052}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -688,6 +710,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -696,8 +719,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -906,5 +929,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D31D77-A5B9-CC43-AE51-30441544203F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332396A-5B26-194C-97F0-4DC829245F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" activeTab="1" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
+    <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="yyyymmdd"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -162,7 +161,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,8 +499,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -719,8 +718,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr backupFile="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332396A-5B26-194C-97F0-4DC829245F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B97E0A-3469-3947-8686-D16E21F9964B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B97E0A-3469-3947-8686-D16E21F9964B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1086C07-4600-414C-AB40-E6C31AAC0A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>
@@ -497,10 +497,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCFFA7-BC1A-364C-B017-DF9AFFD61052}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -696,6 +696,9 @@
       <c r="J6">
         <v>2.92E-2</v>
       </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:J1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1086C07-4600-414C-AB40-E6C31AAC0A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8A832-07F9-C945-8889-07E8F2349370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="US" sheetId="1" r:id="rId1"/>
     <sheet name="Iowa" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +162,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +501,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -538,7 +539,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>43617</v>
       </c>
       <c r="B2">
@@ -570,7 +571,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>43620</v>
       </c>
       <c r="B3">
@@ -602,7 +603,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>43623</v>
       </c>
       <c r="B4">
@@ -634,7 +635,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>43626</v>
       </c>
       <c r="B5">
@@ -666,7 +667,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>43629</v>
       </c>
       <c r="B6">
@@ -698,7 +699,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:J1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8A832-07F9-C945-8889-07E8F2349370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721D4687-AA88-F344-9C00-2BAC533251DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>
@@ -69,8 +69,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -149,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,6 +164,7 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +541,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>43617</v>
       </c>
       <c r="B2">
@@ -571,7 +573,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>43620</v>
       </c>
       <c r="B3">
@@ -603,7 +605,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>43623</v>
       </c>
       <c r="B4">
@@ -635,7 +637,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>43626</v>
       </c>
       <c r="B5">
@@ -667,7 +669,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>43629</v>
       </c>
       <c r="B6">
